--- a/data/trans_orig/P39C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>20902</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12259</v>
+        <v>12590</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31563</v>
+        <v>32064</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1033645662726356</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06062412638625843</v>
+        <v>0.06225792329306492</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1560818349939439</v>
+        <v>0.1585578852056949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -763,19 +763,19 @@
         <v>21353</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13405</v>
+        <v>14026</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32111</v>
+        <v>32785</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09849306015274521</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06183173249216296</v>
+        <v>0.06469571351533759</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1481134826185357</v>
+        <v>0.1512223268607074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -784,19 +784,19 @@
         <v>42256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31202</v>
+        <v>30259</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58767</v>
+        <v>57393</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1008440741224432</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07446323301721125</v>
+        <v>0.07221353654344285</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1402477607502409</v>
+        <v>0.1369695993943436</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>44962</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32451</v>
+        <v>33798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58188</v>
+        <v>57716</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.222343032567661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1604708242136396</v>
+        <v>0.1671335101156546</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2877452537732421</v>
+        <v>0.2854099756060179</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -834,19 +834,19 @@
         <v>51210</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39102</v>
+        <v>38938</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63491</v>
+        <v>63879</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2362093181570476</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1803617420991083</v>
+        <v>0.1796055804418614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2928556917819563</v>
+        <v>0.2946475532921874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -855,19 +855,19 @@
         <v>96172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80260</v>
+        <v>81182</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>114476</v>
+        <v>115521</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2295173772405895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1915421686354028</v>
+        <v>0.1937419680328026</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2731982855520088</v>
+        <v>0.2756937475760092</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>52757</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39456</v>
+        <v>41172</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65959</v>
+        <v>66918</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2608886101659826</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.195115191118926</v>
+        <v>0.2035996629291104</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3261750710668938</v>
+        <v>0.3309151673338112</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -905,19 +905,19 @@
         <v>54477</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41380</v>
+        <v>41949</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67579</v>
+        <v>68312</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2512799452234525</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1908699201800883</v>
+        <v>0.1934942270020491</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3117117446487339</v>
+        <v>0.315093782805585</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>102</v>
@@ -926,19 +926,19 @@
         <v>107234</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>89671</v>
+        <v>89777</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>125817</v>
+        <v>125464</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2559171364645351</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2140007990444839</v>
+        <v>0.214254868330139</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.30026385230768</v>
+        <v>0.2994232607670479</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>38342</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28346</v>
+        <v>27048</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49943</v>
+        <v>50529</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1896058304330014</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1401741789936919</v>
+        <v>0.1337529968130135</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2469730670337147</v>
+        <v>0.2498693708063374</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -976,19 +976,19 @@
         <v>37660</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27861</v>
+        <v>26885</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50218</v>
+        <v>50095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1737090279355323</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1285125134973002</v>
+        <v>0.1240109955296752</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2316349656628624</v>
+        <v>0.2310654009131612</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -997,19 +997,19 @@
         <v>76002</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61176</v>
+        <v>62079</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94328</v>
+        <v>93630</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1813809067806565</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1459989017501649</v>
+        <v>0.1481516982605113</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2251164259417092</v>
+        <v>0.2234505462527861</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>45257</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34245</v>
+        <v>32567</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59461</v>
+        <v>56542</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2237979605607195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1693465124484402</v>
+        <v>0.1610450395250042</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2940409717035224</v>
+        <v>0.2796068609819831</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -1047,19 +1047,19 @@
         <v>52099</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40064</v>
+        <v>39917</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65445</v>
+        <v>65992</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2403086485312223</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1847967824604227</v>
+        <v>0.184119489676428</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3018682194891416</v>
+        <v>0.3043913597363578</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -1068,19 +1068,19 @@
         <v>97355</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>80179</v>
+        <v>79012</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>115832</v>
+        <v>115092</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2323405053917756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1913494049527249</v>
+        <v>0.1885643910904069</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2764365386738695</v>
+        <v>0.2746699429276336</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>40686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29842</v>
+        <v>29332</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54098</v>
+        <v>53882</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09564017625406813</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07014869216869363</v>
+        <v>0.06895049650765421</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1271684232131315</v>
+        <v>0.1266609175108019</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1193,19 +1193,19 @@
         <v>32807</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22832</v>
+        <v>22606</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45426</v>
+        <v>45513</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06759826045695991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04704538008572601</v>
+        <v>0.04657878039481837</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0935998244487031</v>
+        <v>0.09377846891867431</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -1214,19 +1214,19 @@
         <v>73493</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58022</v>
+        <v>57535</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91362</v>
+        <v>91745</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08069676532532309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06370913397601852</v>
+        <v>0.06317530049324395</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1003177691761548</v>
+        <v>0.1007378026137807</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>160682</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>141479</v>
+        <v>140442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181872</v>
+        <v>180894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3777150999843703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3325765366079996</v>
+        <v>0.3301390881671453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4275280060911428</v>
+        <v>0.4252275499107914</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>157</v>
@@ -1264,19 +1264,19 @@
         <v>166145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145813</v>
+        <v>146043</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186422</v>
+        <v>189033</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.342340362991129</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3004450322375501</v>
+        <v>0.3009191875533259</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3841209405991802</v>
+        <v>0.3894992167262654</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>310</v>
@@ -1285,19 +1285,19 @@
         <v>326827</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>298100</v>
+        <v>298608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>359607</v>
+        <v>356746</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.358864061588456</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3273213658670504</v>
+        <v>0.3278787422602666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3948576235218819</v>
+        <v>0.391716122829148</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>135298</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>117193</v>
+        <v>116424</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>156209</v>
+        <v>156001</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3180469809803017</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2754859707164823</v>
+        <v>0.2736786383000603</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3672017825474177</v>
+        <v>0.3667114719549887</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>152</v>
@@ -1335,19 +1335,19 @@
         <v>165327</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>143906</v>
+        <v>144754</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>186853</v>
+        <v>187450</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3406549970895336</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2965162003320534</v>
+        <v>0.2982644517207338</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3850074165505732</v>
+        <v>0.3862387913938309</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>278</v>
@@ -1356,19 +1356,19 @@
         <v>300626</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>271212</v>
+        <v>271025</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>327882</v>
+        <v>329637</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3300946911812851</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2977975150625539</v>
+        <v>0.2975927120379231</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3600231067379374</v>
+        <v>0.3619492808006708</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>38715</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28168</v>
+        <v>27699</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53282</v>
+        <v>51324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09100828083166691</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06621558465140592</v>
+        <v>0.06511178046973362</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1252500005436649</v>
+        <v>0.1206481330475766</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1406,19 +1406,19 @@
         <v>53012</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39816</v>
+        <v>40398</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68771</v>
+        <v>68704</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1092315794069436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08204001138016287</v>
+        <v>0.08323964685056159</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1417011914013169</v>
+        <v>0.141563416144079</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -1427,19 +1427,19 @@
         <v>91728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73932</v>
+        <v>72736</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111143</v>
+        <v>110962</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1007193947604683</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08117871322799829</v>
+        <v>0.07986548189625953</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.122037993486641</v>
+        <v>0.1218385422612144</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>50023</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37661</v>
+        <v>38060</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>66590</v>
+        <v>66216</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.117589461949593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08853053664497369</v>
+        <v>0.08946896713078314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1565346235458929</v>
+        <v>0.1556543908358601</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -1477,19 +1477,19 @@
         <v>68030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52224</v>
+        <v>51657</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84835</v>
+        <v>85230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.140174800055434</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.107607073855624</v>
+        <v>0.1064380811805141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1748019346624425</v>
+        <v>0.1756151496624616</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>107</v>
@@ -1498,19 +1498,19 @@
         <v>118053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>98767</v>
+        <v>98697</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140864</v>
+        <v>140382</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1296250871444676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1084487259869198</v>
+        <v>0.1083719819030897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1546720805922277</v>
+        <v>0.1541430068173469</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>37142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27271</v>
+        <v>27309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49787</v>
+        <v>49381</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.13598753580303</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09984705882347998</v>
+        <v>0.09998744390109246</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1822855448292044</v>
+        <v>0.1807976667449397</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1623,19 +1623,19 @@
         <v>28369</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18460</v>
+        <v>20088</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38424</v>
+        <v>40256</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09480585917444832</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06168952514522839</v>
+        <v>0.06713071152766409</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1284089919588752</v>
+        <v>0.134531735532083</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -1644,19 +1644,19 @@
         <v>65511</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51607</v>
+        <v>51336</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80739</v>
+        <v>80723</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1144575794657841</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09016544928451448</v>
+        <v>0.08969059779607462</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1410625135919423</v>
+        <v>0.1410342378718193</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>92153</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78206</v>
+        <v>77209</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108295</v>
+        <v>106990</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3373973267621139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2863351373192846</v>
+        <v>0.282681550428835</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3964971395289316</v>
+        <v>0.3917211570403001</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>83</v>
@@ -1694,19 +1694,19 @@
         <v>83573</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68495</v>
+        <v>68452</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>98752</v>
+        <v>98979</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2792887726094229</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2289002060789136</v>
+        <v>0.2287561501555696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3300175358349791</v>
+        <v>0.3307749443961149</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>179</v>
@@ -1715,19 +1715,19 @@
         <v>175726</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>153338</v>
+        <v>153956</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>199484</v>
+        <v>196766</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3070179265980217</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2679033340259325</v>
+        <v>0.2689824543010828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.348526714602281</v>
+        <v>0.3437775298375809</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>91800</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>75886</v>
+        <v>77691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>106916</v>
+        <v>106743</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.336103369459436</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2778393932503763</v>
+        <v>0.2844483622089407</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3914497037740648</v>
+        <v>0.3908139154741934</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>115</v>
@@ -1765,19 +1765,19 @@
         <v>118424</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>100558</v>
+        <v>100535</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>134354</v>
+        <v>135544</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3957576510749386</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3360508514541861</v>
+        <v>0.3359731520196846</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4489938885692815</v>
+        <v>0.4529709076408214</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>212</v>
@@ -1786,19 +1786,19 @@
         <v>210224</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>187154</v>
+        <v>187526</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>231063</v>
+        <v>232767</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.367290882539468</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.326984446302695</v>
+        <v>0.3276348618273803</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4037007451724718</v>
+        <v>0.4066778398535134</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>26263</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17466</v>
+        <v>17890</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37420</v>
+        <v>35880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09615482390009128</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06394897112890142</v>
+        <v>0.06549841063184801</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1370039657969952</v>
+        <v>0.1313671366358293</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1836,19 +1836,19 @@
         <v>23723</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16119</v>
+        <v>16259</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34979</v>
+        <v>34891</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07927796008604623</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05386595729837755</v>
+        <v>0.05433644541477157</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1168955541852766</v>
+        <v>0.1165997829120459</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -1857,19 +1857,19 @@
         <v>49985</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38328</v>
+        <v>37646</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65330</v>
+        <v>63976</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0873315274543645</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06696373255199967</v>
+        <v>0.06577313285899024</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1141410991769865</v>
+        <v>0.1117750903184108</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>25772</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17728</v>
+        <v>17602</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36420</v>
+        <v>36673</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09435694407532888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06490729446214136</v>
+        <v>0.06444734243202588</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1333430870423871</v>
+        <v>0.1342708872940046</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -1907,19 +1907,19 @@
         <v>45145</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33416</v>
+        <v>34156</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57581</v>
+        <v>60621</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.150869757055144</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.111671715393311</v>
+        <v>0.1141449792124514</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1924296097459551</v>
+        <v>0.2025859630410599</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -1928,19 +1928,19 @@
         <v>70917</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>58599</v>
+        <v>57334</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>88663</v>
+        <v>87959</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1239020839423617</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1023809153161099</v>
+        <v>0.1001708404216997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1549074994548291</v>
+        <v>0.1536774526844384</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>43387</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31423</v>
+        <v>31257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57138</v>
+        <v>56212</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1278500820945491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09259553838751317</v>
+        <v>0.09210728473811532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1683723123196105</v>
+        <v>0.1656417760331203</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -2053,19 +2053,19 @@
         <v>34927</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24412</v>
+        <v>24724</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45586</v>
+        <v>47223</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09866246595184806</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06895926500293729</v>
+        <v>0.06983949648856605</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.128771024631196</v>
+        <v>0.1333955718303139</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -2074,19 +2074,19 @@
         <v>78314</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62051</v>
+        <v>63192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96759</v>
+        <v>96962</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1129478638311333</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08949273428373419</v>
+        <v>0.09113821843811952</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1395498213100763</v>
+        <v>0.1398423217932679</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>67470</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>53075</v>
+        <v>52729</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82522</v>
+        <v>81881</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1988184969607282</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1564004467047773</v>
+        <v>0.1553809137098152</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2431735578280389</v>
+        <v>0.2412849549618453</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -2124,19 +2124,19 @@
         <v>70392</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>55779</v>
+        <v>56622</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>87752</v>
+        <v>88635</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1988417262348338</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1575632411073561</v>
+        <v>0.1599458582198255</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2478810547222655</v>
+        <v>0.2503758499361413</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>128</v>
@@ -2145,19 +2145,19 @@
         <v>137862</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>117179</v>
+        <v>116448</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>161803</v>
+        <v>160957</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1988303570493059</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1690013349005146</v>
+        <v>0.1679468335547643</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2333589743679239</v>
+        <v>0.2321390411096336</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>91094</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75757</v>
+        <v>74008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>109047</v>
+        <v>107640</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.268431613310028</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2232372546661786</v>
+        <v>0.2180844483908632</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3213336507785279</v>
+        <v>0.3171894348764265</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>72</v>
@@ -2195,19 +2195,19 @@
         <v>78733</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>63103</v>
+        <v>63288</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>97075</v>
+        <v>98082</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2224035234768726</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1782522813769639</v>
+        <v>0.1787765548673746</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2742161888391198</v>
+        <v>0.2770613461379229</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>158</v>
@@ -2216,19 +2216,19 @@
         <v>169826</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>145865</v>
+        <v>147592</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>194240</v>
+        <v>193147</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2449312137711187</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.210372675134629</v>
+        <v>0.212863293306749</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2801409593031191</v>
+        <v>0.278565795503158</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>43576</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31939</v>
+        <v>32486</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57055</v>
+        <v>58575</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1284067690110778</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09411509485108908</v>
+        <v>0.09572975703061243</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1681280550068351</v>
+        <v>0.1726056139767053</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2266,19 +2266,19 @@
         <v>51121</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39124</v>
+        <v>38567</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66641</v>
+        <v>65857</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1444056952008293</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1105185193718605</v>
+        <v>0.1089427583384725</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1882461374038564</v>
+        <v>0.1860321899599119</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -2287,19 +2287,19 @@
         <v>94696</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77763</v>
+        <v>76500</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114352</v>
+        <v>114128</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1365752843462905</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1121539295108984</v>
+        <v>0.1103311205040051</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1649236445283809</v>
+        <v>0.1646005833683199</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>93830</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76989</v>
+        <v>78189</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110526</v>
+        <v>110654</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2764930386236169</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.226868409511854</v>
+        <v>0.2304043977311924</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3256927877234351</v>
+        <v>0.3260708201896281</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>109</v>
@@ -2337,19 +2337,19 @@
         <v>118836</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101311</v>
+        <v>100936</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>136745</v>
+        <v>139074</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3356865891356163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2861821157950635</v>
+        <v>0.2851232467803373</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3862755543156631</v>
+        <v>0.3928558236575874</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>202</v>
@@ -2358,19 +2358,19 @@
         <v>212665</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>187744</v>
+        <v>186779</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>237840</v>
+        <v>237234</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3067152810021516</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2707722376817074</v>
+        <v>0.269380721919486</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.34302398795591</v>
+        <v>0.3421490028376923</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>30796</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21844</v>
+        <v>22135</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>40970</v>
+        <v>41622</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1940981318346915</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1376789072750793</v>
+        <v>0.139513798592385</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2582245438618165</v>
+        <v>0.2623376619832611</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -2483,19 +2483,19 @@
         <v>23167</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>15769</v>
+        <v>15438</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33884</v>
+        <v>33346</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1202797994570358</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08187210809636439</v>
+        <v>0.08015354822537649</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1759172015494423</v>
+        <v>0.1731240242852159</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>53</v>
@@ -2504,19 +2504,19 @@
         <v>53963</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>42345</v>
+        <v>41069</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>69260</v>
+        <v>68441</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1536216260084417</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1205467179055768</v>
+        <v>0.1169144469348794</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1971710653951896</v>
+        <v>0.1948373395441658</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>36559</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25833</v>
+        <v>26115</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46968</v>
+        <v>48006</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2304259843584732</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1628205989720677</v>
+        <v>0.1645982377228354</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2960294703675885</v>
+        <v>0.3025705715044725</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>53</v>
@@ -2554,19 +2554,19 @@
         <v>51065</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39588</v>
+        <v>39662</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>63840</v>
+        <v>64116</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2651195792056985</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2055354014494777</v>
+        <v>0.2059181677404485</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3314447413752036</v>
+        <v>0.3328798827167897</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>89</v>
@@ -2575,19 +2575,19 @@
         <v>87624</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>72879</v>
+        <v>72036</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>102547</v>
+        <v>103548</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2494493820530048</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2074723939199045</v>
+        <v>0.2050713576311464</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.291932115479887</v>
+        <v>0.294780601505657</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>30245</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21805</v>
+        <v>21842</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40572</v>
+        <v>41051</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1906292238029659</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1374304119287826</v>
+        <v>0.1376662429644674</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2557196936053777</v>
+        <v>0.2587362892949757</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>45</v>
@@ -2625,19 +2625,19 @@
         <v>42547</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32542</v>
+        <v>32212</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54804</v>
+        <v>54403</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.220896858010149</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1689521105758895</v>
+        <v>0.1672405253448511</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2845343742389919</v>
+        <v>0.2824516389213335</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>75</v>
@@ -2646,19 +2646,19 @@
         <v>72792</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>58308</v>
+        <v>57727</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>88521</v>
+        <v>88571</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2072257525089528</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1659926138254753</v>
+        <v>0.1643378296257234</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2520010452536118</v>
+        <v>0.2521450496411127</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>30415</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21721</v>
+        <v>21234</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40854</v>
+        <v>40378</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1917016878466436</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1369008871596982</v>
+        <v>0.1338323579734755</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.25749392764516</v>
+        <v>0.2544969428044483</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>37</v>
@@ -2696,19 +2696,19 @@
         <v>37178</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>26936</v>
+        <v>27363</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47857</v>
+        <v>50121</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.193021576224284</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1398445690563846</v>
+        <v>0.1420628984965324</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2484627149185425</v>
+        <v>0.260218669919552</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>69</v>
@@ -2717,19 +2717,19 @@
         <v>67593</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>55016</v>
+        <v>55177</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83616</v>
+        <v>83121</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1924254168701366</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1566190146165341</v>
+        <v>0.1570784394418574</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2380391261329025</v>
+        <v>0.2366300374715025</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>30644</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21818</v>
+        <v>21384</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>42404</v>
+        <v>41271</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1931449721572257</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.13751408222109</v>
+        <v>0.1347795928693547</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2672644083041806</v>
+        <v>0.2601230940288515</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -2767,19 +2767,19 @@
         <v>38654</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27461</v>
+        <v>29105</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>52012</v>
+        <v>50928</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2006821871028328</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1425705933766757</v>
+        <v>0.1511055070727887</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2700382704286928</v>
+        <v>0.2644093751651712</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>68</v>
@@ -2788,19 +2788,19 @@
         <v>69298</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>55454</v>
+        <v>55363</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>86604</v>
+        <v>85043</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1972778225594641</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1578676168784526</v>
+        <v>0.1576087462729107</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2465460584311482</v>
+        <v>0.2421016044783118</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>33618</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>23869</v>
+        <v>22772</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>44959</v>
+        <v>45517</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1598250584036152</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1134780444618811</v>
+        <v>0.1082622234888034</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2137433291803381</v>
+        <v>0.2163951680081801</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>19</v>
@@ -2913,19 +2913,19 @@
         <v>19699</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>12713</v>
+        <v>12178</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>30108</v>
+        <v>29281</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08343874083183975</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05384699694308729</v>
+        <v>0.05158408077925777</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1275286323594995</v>
+        <v>0.1240279588124869</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>51</v>
@@ -2934,19 +2934,19 @@
         <v>53317</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>41150</v>
+        <v>40844</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>67882</v>
+        <v>68361</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1194295236085412</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09217652967827006</v>
+        <v>0.09149079655542398</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.152055530221976</v>
+        <v>0.1531272761883454</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>43792</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33219</v>
+        <v>33106</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>55570</v>
+        <v>56174</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.208195468704659</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1579271290939359</v>
+        <v>0.1573885368554534</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2641883146724415</v>
+        <v>0.267058677968544</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>54</v>
@@ -2984,19 +2984,19 @@
         <v>57809</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>43952</v>
+        <v>45391</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>72150</v>
+        <v>71353</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2448629019796517</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1861695007538784</v>
+        <v>0.1922659540602403</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3056086079051509</v>
+        <v>0.3022344888534214</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>98</v>
@@ -3005,19 +3005,19 @@
         <v>101601</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>84591</v>
+        <v>84212</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>121255</v>
+        <v>119604</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2275863835149485</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1894828581418983</v>
+        <v>0.1886341036447515</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.271611232993565</v>
+        <v>0.267912611512947</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>54719</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>43031</v>
+        <v>43062</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>68729</v>
+        <v>69444</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2601394333998628</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2045741824202722</v>
+        <v>0.2047216669689076</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3267460727091768</v>
+        <v>0.330146643626938</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>47</v>
@@ -3055,19 +3055,19 @@
         <v>47531</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>35950</v>
+        <v>35236</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>61145</v>
+        <v>59501</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2013271280026436</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1522754142639869</v>
+        <v>0.1492524509296639</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.258996083828265</v>
+        <v>0.2520310167000545</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>102</v>
@@ -3076,19 +3076,19 @@
         <v>102249</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>84422</v>
+        <v>87021</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>119301</v>
+        <v>121113</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2290375999226889</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1891037141919532</v>
+        <v>0.1949262455756663</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2672336628809951</v>
+        <v>0.2712926518526366</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>34590</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25076</v>
+        <v>24440</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>47292</v>
+        <v>45836</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.164443814340504</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1192164589947704</v>
+        <v>0.1161908747826471</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2248348680280803</v>
+        <v>0.2179105038736249</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>45</v>
@@ -3126,19 +3126,19 @@
         <v>48377</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>36035</v>
+        <v>37509</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>63113</v>
+        <v>62537</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2049123477254862</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1526362156416688</v>
+        <v>0.1588772889512397</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2673287837071717</v>
+        <v>0.2648907086118917</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>78</v>
@@ -3147,19 +3147,19 @@
         <v>82967</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>68002</v>
+        <v>66600</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>102574</v>
+        <v>100737</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1858448728078479</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1523243187989436</v>
+        <v>0.1491824189432432</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2297648613415629</v>
+        <v>0.2256500988230603</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>43624</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>32434</v>
+        <v>32084</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>56810</v>
+        <v>56637</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.207396225151359</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1541964503752174</v>
+        <v>0.1525339064641303</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2700844873880886</v>
+        <v>0.2692603502558091</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>60</v>
@@ -3197,19 +3197,19 @@
         <v>62671</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>50174</v>
+        <v>50126</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>76623</v>
+        <v>76674</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2654588814603787</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2125251843426236</v>
+        <v>0.2123202640561059</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3245555023404494</v>
+        <v>0.3247710166695727</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>103</v>
@@ -3218,19 +3218,19 @@
         <v>106296</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>89581</v>
+        <v>89235</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>125704</v>
+        <v>125111</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2381016201459735</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2006615283154365</v>
+        <v>0.1998855197693971</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2815762067966454</v>
+        <v>0.2802469344680939</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>37987</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>26662</v>
+        <v>26409</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>51208</v>
+        <v>51676</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09766979683350309</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0685507734999983</v>
+        <v>0.06790046263027773</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1316638720924846</v>
+        <v>0.1328649248904099</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>40</v>
@@ -3343,19 +3343,19 @@
         <v>40717</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>29785</v>
+        <v>29923</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>53693</v>
+        <v>54340</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08460114856780024</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06188645999024862</v>
+        <v>0.06217429356592669</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1115616680521609</v>
+        <v>0.1129064321115319</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>73</v>
@@ -3364,19 +3364,19 @@
         <v>78704</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>62308</v>
+        <v>62806</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>97334</v>
+        <v>96018</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09044203225064328</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07160013348674875</v>
+        <v>0.07217283847359228</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1118504359040054</v>
+        <v>0.1103385623292215</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>105459</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>88442</v>
+        <v>85287</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>123953</v>
+        <v>124725</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2711491665476527</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2273962661471211</v>
+        <v>0.2192842953322331</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3187006099973111</v>
+        <v>0.3206859274065424</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>97</v>
@@ -3414,19 +3414,19 @@
         <v>103421</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>84224</v>
+        <v>85777</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>121355</v>
+        <v>121956</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2148867088559329</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1749983690173234</v>
+        <v>0.1782256259016448</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2521490089555844</v>
+        <v>0.2533982667953121</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>189</v>
@@ -3435,19 +3435,19 @@
         <v>208880</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>182262</v>
+        <v>183734</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>235501</v>
+        <v>237849</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2400325743201251</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2094451541248202</v>
+        <v>0.2111358173370193</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2706236344764024</v>
+        <v>0.2733225236604185</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>106234</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>90028</v>
+        <v>87710</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>127752</v>
+        <v>126954</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2731414555842424</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2314753502043972</v>
+        <v>0.22551419262321</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3284669612299452</v>
+        <v>0.3264171714156944</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>138</v>
@@ -3485,19 +3485,19 @@
         <v>150602</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>130661</v>
+        <v>130609</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>169029</v>
+        <v>172342</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3129174137001386</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2714861443809281</v>
+        <v>0.2713783109591001</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3512063913705213</v>
+        <v>0.358089706499476</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>231</v>
@@ -3506,19 +3506,19 @@
         <v>256835</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>229866</v>
+        <v>231971</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>286775</v>
+        <v>288580</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2951400016828376</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2641490045559917</v>
+        <v>0.2665670735577798</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3295455615453374</v>
+        <v>0.3316194771306878</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>52683</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>40016</v>
+        <v>39886</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>67333</v>
+        <v>70454</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1354563039290406</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1028868955917053</v>
+        <v>0.1025527896336109</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1731229341889529</v>
+        <v>0.1811472419236085</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>56</v>
@@ -3556,19 +3556,19 @@
         <v>60687</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>46737</v>
+        <v>47339</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>75920</v>
+        <v>75895</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1260936882242967</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09710980081369693</v>
+        <v>0.09836120844974004</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.157745957778702</v>
+        <v>0.1576926337128852</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>103</v>
@@ -3577,19 +3577,19 @@
         <v>113370</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>93997</v>
+        <v>95044</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>137115</v>
+        <v>133458</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1302782028111714</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1080158413305819</v>
+        <v>0.1092195274070884</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1575639380072578</v>
+        <v>0.153362655857601</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>86570</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>69617</v>
+        <v>69187</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>104553</v>
+        <v>104403</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2225832771055612</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1789958401964677</v>
+        <v>0.1778904907288774</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2688193843091133</v>
+        <v>0.2684354737538518</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>110</v>
@@ -3627,19 +3627,19 @@
         <v>125856</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>107068</v>
+        <v>106259</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>147786</v>
+        <v>148052</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2615010406518315</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2224632748349167</v>
+        <v>0.2207837041580993</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3070683496707348</v>
+        <v>0.3076197373074527</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>187</v>
@@ -3648,19 +3648,19 @@
         <v>212426</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>185848</v>
+        <v>183665</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>241701</v>
+        <v>237960</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2441071889352226</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2135656263876814</v>
+        <v>0.2110570647748566</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2777490542086647</v>
+        <v>0.2734499646835111</v>
       </c>
     </row>
     <row r="45">
@@ -3752,19 +3752,19 @@
         <v>67676</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>52438</v>
+        <v>53059</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>86574</v>
+        <v>84437</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1056059942354571</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08182701712670941</v>
+        <v>0.08279656163104114</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1350948982581292</v>
+        <v>0.1317607641872931</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>49</v>
@@ -3773,19 +3773,19 @@
         <v>51120</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>39125</v>
+        <v>39124</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>66139</v>
+        <v>65640</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06891688909308454</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05274638491450761</v>
+        <v>0.05274423014633703</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08916501671260064</v>
+        <v>0.08849182979534938</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>114</v>
@@ -3794,19 +3794,19 @@
         <v>118796</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>98632</v>
+        <v>99127</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>142343</v>
+        <v>140825</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08592234804923607</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07133797743581932</v>
+        <v>0.07169661098133229</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1029536917233009</v>
+        <v>0.1018553898575544</v>
       </c>
     </row>
     <row r="47">
@@ -3823,19 +3823,19 @@
         <v>174028</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>151934</v>
+        <v>152035</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>196578</v>
+        <v>194847</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2715643295498509</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2370876836406962</v>
+        <v>0.2372452603309953</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3067532861626843</v>
+        <v>0.3040518201570191</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>185</v>
@@ -3844,19 +3844,19 @@
         <v>196185</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>171854</v>
+        <v>170632</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>223042</v>
+        <v>221545</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2644848855053087</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2316836425090075</v>
+        <v>0.2300358117917934</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3006920380052743</v>
+        <v>0.2986745599540756</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>350</v>
@@ -3865,19 +3865,19 @@
         <v>370213</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>335865</v>
+        <v>336905</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>403457</v>
+        <v>403104</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2677662191509417</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2429236995441995</v>
+        <v>0.2436754979106437</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2918112258048206</v>
+        <v>0.2915558087591976</v>
       </c>
     </row>
     <row r="48">
@@ -3894,19 +3894,19 @@
         <v>205518</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>179835</v>
+        <v>182892</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>228696</v>
+        <v>229615</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3207033652695893</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.280625621210758</v>
+        <v>0.2853967318954613</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3568722928473649</v>
+        <v>0.3583054184856599</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>233</v>
@@ -3915,19 +3915,19 @@
         <v>257507</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>231345</v>
+        <v>229953</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>283770</v>
+        <v>282669</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3471563828891992</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3118867398140029</v>
+        <v>0.3100096836022058</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3825626126036265</v>
+        <v>0.3810779936627701</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>436</v>
@@ -3936,19 +3936,19 @@
         <v>463025</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>430487</v>
+        <v>426666</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>500660</v>
+        <v>497861</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3348953668831942</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3113613812060786</v>
+        <v>0.3085978388677768</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3621159318143504</v>
+        <v>0.3600917327807682</v>
       </c>
     </row>
     <row r="49">
@@ -3965,19 +3965,19 @@
         <v>99499</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>82839</v>
+        <v>83834</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>121683</v>
+        <v>120937</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1552650928217807</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1292665688509495</v>
+        <v>0.1308202929765535</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1898818957339896</v>
+        <v>0.1887172931621832</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>103</v>
@@ -3986,19 +3986,19 @@
         <v>117263</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>98431</v>
+        <v>97994</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>140921</v>
+        <v>137383</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1580871891569593</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1326994929864842</v>
+        <v>0.1321102499468391</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1899823502198599</v>
+        <v>0.1852120998645469</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>197</v>
@@ -4007,19 +4007,19 @@
         <v>216762</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>190820</v>
+        <v>189938</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>246866</v>
+        <v>245887</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1567791429887043</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1380156724622443</v>
+        <v>0.1373778336318021</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1785526551766359</v>
+        <v>0.1778441681589785</v>
       </c>
     </row>
     <row r="50">
@@ -4036,19 +4036,19 @@
         <v>94114</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>77553</v>
+        <v>75801</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>114064</v>
+        <v>111763</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.146861218123322</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1210179177834911</v>
+        <v>0.1182842842087983</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1779928333346578</v>
+        <v>0.1744028060982504</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>104</v>
@@ -4057,19 +4057,19 @@
         <v>119687</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>101284</v>
+        <v>100624</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>145105</v>
+        <v>143230</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1613546533554483</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1365460000208212</v>
+        <v>0.1356550755319608</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1956225547032007</v>
+        <v>0.1930941697020307</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>196</v>
@@ -4078,19 +4078,19 @@
         <v>213800</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>187442</v>
+        <v>186190</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>241971</v>
+        <v>242843</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1546369229279237</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.135572144671251</v>
+        <v>0.134666925087065</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1750118023306156</v>
+        <v>0.1756429984522213</v>
       </c>
     </row>
     <row r="51">
@@ -4182,19 +4182,19 @@
         <v>312194</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>280149</v>
+        <v>279006</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>346991</v>
+        <v>346326</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1183053623715739</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1061620052243525</v>
+        <v>0.1057290640605033</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1314915337357781</v>
+        <v>0.1312395966370927</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>244</v>
@@ -4203,19 +4203,19 @@
         <v>252159</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>224387</v>
+        <v>223001</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>284759</v>
+        <v>282235</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.08385458523446856</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.07461884786414635</v>
+        <v>0.07415820237683413</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.09469531426377095</v>
+        <v>0.09385622758994712</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>540</v>
@@ -4224,19 +4224,19 @@
         <v>564353</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>518764</v>
+        <v>520555</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>614047</v>
+        <v>612810</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.09995656395976238</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.09188194322196547</v>
+        <v>0.09219923009445265</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1087581970964964</v>
+        <v>0.1085391297784295</v>
       </c>
     </row>
     <row r="53">
@@ -4253,19 +4253,19 @@
         <v>725106</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>678517</v>
+        <v>679134</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>771944</v>
+        <v>776546</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2747777685794051</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2571229222730343</v>
+        <v>0.2573566615130033</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.292527126993834</v>
+        <v>0.2942709672704982</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>743</v>
@@ -4274,19 +4274,19 @@
         <v>779799</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>727465</v>
+        <v>734228</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>826319</v>
+        <v>830283</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2593189426767597</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2419156847843827</v>
+        <v>0.2441646225700263</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2747889443686105</v>
+        <v>0.2761071541831974</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1434</v>
@@ -4295,19 +4295,19 @@
         <v>1504905</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1444244</v>
+        <v>1441142</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1575851</v>
+        <v>1576465</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2665442567766939</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2558002746483045</v>
+        <v>0.2552507565633778</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2791100025651043</v>
+        <v>0.2792188629613692</v>
       </c>
     </row>
     <row r="54">
@@ -4324,19 +4324,19 @@
         <v>767665</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>718970</v>
+        <v>720259</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>813177</v>
+        <v>819082</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2909053125407814</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2724526368300417</v>
+        <v>0.2729409310412323</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3081521740510016</v>
+        <v>0.3103898698835959</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>854</v>
@@ -4345,19 +4345,19 @@
         <v>915148</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>862063</v>
+        <v>864390</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>967672</v>
+        <v>969802</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3043286282512527</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2866755531196724</v>
+        <v>0.2874493153390477</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3217955000501118</v>
+        <v>0.3225037178350421</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1594</v>
@@ -4366,19 +4366,19 @@
         <v>1682812</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1615814</v>
+        <v>1612343</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1754630</v>
+        <v>1755488</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2980546930325283</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.286188150843933</v>
+        <v>0.2855734903136756</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3107749567272546</v>
+        <v>0.3109268367281766</v>
       </c>
     </row>
     <row r="55">
@@ -4395,19 +4395,19 @@
         <v>364084</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>323994</v>
+        <v>327680</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>402238</v>
+        <v>403180</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1379689300841478</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1227769934351146</v>
+        <v>0.1241739694003568</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1524275372782873</v>
+        <v>0.1527844505869271</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>394</v>
@@ -4416,19 +4416,19 @@
         <v>429020</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>387577</v>
+        <v>392802</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>468986</v>
+        <v>471558</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1426690216199882</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1288870593168109</v>
+        <v>0.1306247978874223</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.155959451242087</v>
+        <v>0.1568146031779057</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>742</v>
@@ -4437,19 +4437,19 @@
         <v>793104</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>742368</v>
+        <v>738380</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>846087</v>
+        <v>846946</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1404722417442877</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.131486076614714</v>
+        <v>0.1307796341013513</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1498563683823294</v>
+        <v>0.1500085944762298</v>
       </c>
     </row>
     <row r="56">
@@ -4466,19 +4466,19 @@
         <v>469833</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>428878</v>
+        <v>429321</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>508386</v>
+        <v>507596</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1780426264240918</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1625227442505029</v>
+        <v>0.1626906209744237</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1926522338847255</v>
+        <v>0.1923529150895413</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>575</v>
@@ -4487,19 +4487,19 @@
         <v>630977</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>586522</v>
+        <v>587611</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>678909</v>
+        <v>677740</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2098288222175308</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1950454764004901</v>
+        <v>0.1954077627425918</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2257684057481896</v>
+        <v>0.2253798553800772</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1025</v>
@@ -4508,19 +4508,19 @@
         <v>1100810</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1038855</v>
+        <v>1038103</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1169323</v>
+        <v>1158493</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1949722444867277</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1839988774857225</v>
+        <v>0.1838657272612243</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.207107072306554</v>
+        <v>0.2051888003613622</v>
       </c>
     </row>
     <row r="57">
@@ -4856,19 +4856,19 @@
         <v>18308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10976</v>
+        <v>10304</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30695</v>
+        <v>29105</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05893005359724172</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0353292919097271</v>
+        <v>0.03316715631211784</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09880011795088804</v>
+        <v>0.0936806642171308</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4877,19 +4877,19 @@
         <v>5127</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2521</v>
+        <v>2488</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8771</v>
+        <v>9769</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0164471772499005</v>
+        <v>0.01644717724990051</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008088875363199006</v>
+        <v>0.007982228949162016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02813840215970239</v>
+        <v>0.03134025281299834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -4898,19 +4898,19 @@
         <v>23435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16102</v>
+        <v>15359</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37442</v>
+        <v>34958</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03765313915617786</v>
+        <v>0.03765313915617785</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02587166128999428</v>
+        <v>0.02467660534835526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0601571184675047</v>
+        <v>0.05616701508221949</v>
       </c>
     </row>
     <row r="5">
@@ -4927,19 +4927,19 @@
         <v>93133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78322</v>
+        <v>75073</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111663</v>
+        <v>114145</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2997749593712134</v>
+        <v>0.2997749593712133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2521001907315895</v>
+        <v>0.2416431345981489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3594157193871358</v>
+        <v>0.3674072323643049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -4948,19 +4948,19 @@
         <v>78969</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66934</v>
+        <v>66629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93729</v>
+        <v>94284</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2533332751394036</v>
+        <v>0.2533332751394037</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2147252943076002</v>
+        <v>0.2137466761786933</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3006866696579921</v>
+        <v>0.3024655595477961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>216</v>
@@ -4969,19 +4969,19 @@
         <v>172102</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149284</v>
+        <v>151011</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193102</v>
+        <v>194984</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2765153350976568</v>
+        <v>0.2765153350976567</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2398540206959075</v>
+        <v>0.2426283162504804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3102550718180081</v>
+        <v>0.3132797394950704</v>
       </c>
     </row>
     <row r="6">
@@ -4998,19 +4998,19 @@
         <v>63300</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49194</v>
+        <v>49414</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79686</v>
+        <v>81057</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2037470521981062</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1583433204101333</v>
+        <v>0.1590507388706943</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.25648936322453</v>
+        <v>0.2609023752728818</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>148</v>
@@ -5019,19 +5019,19 @@
         <v>84961</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71520</v>
+        <v>73702</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97835</v>
+        <v>97887</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.272555844413383</v>
+        <v>0.2725558444133832</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2294375251328707</v>
+        <v>0.2364387443532886</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3138588904890094</v>
+        <v>0.3140231796177997</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>210</v>
@@ -5040,19 +5040,19 @@
         <v>148260</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>128362</v>
+        <v>128271</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>170342</v>
+        <v>168180</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2382089086126146</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2062380982808452</v>
+        <v>0.2060927164933868</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2736871476822128</v>
+        <v>0.2702134726533606</v>
       </c>
     </row>
     <row r="7">
@@ -5069,19 +5069,19 @@
         <v>50269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38293</v>
+        <v>38174</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64602</v>
+        <v>63460</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1618033247176885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1232566972755665</v>
+        <v>0.1228737346676843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2079377265663556</v>
+        <v>0.2042640205029779</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -5090,19 +5090,19 @@
         <v>45722</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37751</v>
+        <v>36355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56458</v>
+        <v>55108</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1466777836140057</v>
+        <v>0.1466777836140058</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1211050268056875</v>
+        <v>0.1166292130180481</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1811188524516432</v>
+        <v>0.1767884065278677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>136</v>
@@ -5111,19 +5111,19 @@
         <v>95991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80721</v>
+        <v>81258</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114318</v>
+        <v>113648</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1542279232475385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1296938772111118</v>
+        <v>0.130556277073879</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1836735994565814</v>
+        <v>0.1825979553034087</v>
       </c>
     </row>
     <row r="8">
@@ -5140,19 +5140,19 @@
         <v>85668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71932</v>
+        <v>71495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101049</v>
+        <v>102337</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2757446101157502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2315330850212631</v>
+        <v>0.2301268715076861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3252535955103518</v>
+        <v>0.3293989413670569</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>165</v>
@@ -5161,19 +5161,19 @@
         <v>96940</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>83853</v>
+        <v>84049</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110348</v>
+        <v>111011</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3109859195833069</v>
+        <v>0.310985919583307</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2690011695679918</v>
+        <v>0.2696299234657054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3539987229776967</v>
+        <v>0.3561266410928752</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>266</v>
@@ -5182,19 +5182,19 @@
         <v>182608</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>162607</v>
+        <v>164597</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>204625</v>
+        <v>204949</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2933946938860123</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2612603471728232</v>
+        <v>0.2644573369324308</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.328770009267548</v>
+        <v>0.329290112284696</v>
       </c>
     </row>
     <row r="9">
@@ -5286,19 +5286,19 @@
         <v>64959</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48286</v>
+        <v>47243</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85950</v>
+        <v>83505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1642633479489341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1221031857306061</v>
+        <v>0.119464137499748</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2173438078938289</v>
+        <v>0.2111625019958385</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -5307,19 +5307,19 @@
         <v>73709</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61580</v>
+        <v>60238</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88145</v>
+        <v>87500</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1609338190258069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1344517023690505</v>
+        <v>0.1315232804474092</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1924541296083151</v>
+        <v>0.1910444537156777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -5328,19 +5328,19 @@
         <v>138668</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116591</v>
+        <v>117578</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161569</v>
+        <v>161943</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1624765744502562</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1366098318317867</v>
+        <v>0.1377660723770286</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1893105980139752</v>
+        <v>0.1897480615557298</v>
       </c>
     </row>
     <row r="11">
@@ -5357,19 +5357,19 @@
         <v>166805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>144988</v>
+        <v>145306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>191495</v>
+        <v>190906</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4218039280152824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.366635570699566</v>
+        <v>0.3674389206508998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4842376906926626</v>
+        <v>0.4827493394004415</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>261</v>
@@ -5378,19 +5378,19 @@
         <v>191964</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174285</v>
+        <v>174943</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>210177</v>
+        <v>210932</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4191295683207995</v>
+        <v>0.4191295683207996</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3805299273682506</v>
+        <v>0.3819665222567633</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4588954501701715</v>
+        <v>0.4605435584075885</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>394</v>
@@ -5399,19 +5399,19 @@
         <v>358769</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>333802</v>
+        <v>328868</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>390524</v>
+        <v>388767</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4203687475022546</v>
+        <v>0.4203687475022547</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3911153714366125</v>
+        <v>0.3853346183097853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.457576866546652</v>
+        <v>0.4555173482749244</v>
       </c>
     </row>
     <row r="12">
@@ -5428,19 +5428,19 @@
         <v>83321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65724</v>
+        <v>68463</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>104737</v>
+        <v>102541</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2106960527540027</v>
+        <v>0.2106960527540028</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1661970168799558</v>
+        <v>0.1731240416757878</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2648508665171512</v>
+        <v>0.2592981916255322</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>129</v>
@@ -5449,19 +5449,19 @@
         <v>92519</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>78279</v>
+        <v>78748</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109387</v>
+        <v>107487</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2020045401986048</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.170913403582181</v>
+        <v>0.1719356087901443</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.238834065537185</v>
+        <v>0.2346854796492529</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>198</v>
@@ -5470,19 +5470,19 @@
         <v>175840</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>152736</v>
+        <v>152560</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>201030</v>
+        <v>199468</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2060318000455971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1789600874989265</v>
+        <v>0.1787544528901559</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2355462340296186</v>
+        <v>0.2337162994524708</v>
       </c>
     </row>
     <row r="13">
@@ -5499,19 +5499,19 @@
         <v>30201</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19861</v>
+        <v>19267</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45846</v>
+        <v>47189</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07636924339022999</v>
+        <v>0.07636924339023</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05022178198321012</v>
+        <v>0.04872011032658452</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1159326505951561</v>
+        <v>0.1193291192582186</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -5520,19 +5520,19 @@
         <v>29255</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21247</v>
+        <v>21667</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40076</v>
+        <v>38542</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06387562657274205</v>
+        <v>0.06387562657274207</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04639054227058025</v>
+        <v>0.04730736632978495</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08749994861448887</v>
+        <v>0.08415114394376794</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -5541,19 +5541,19 @@
         <v>59456</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46335</v>
+        <v>45070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77101</v>
+        <v>76190</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06966461221040622</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05429058786605516</v>
+        <v>0.05280900000540452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09033924000029921</v>
+        <v>0.08927168208489075</v>
       </c>
     </row>
     <row r="14">
@@ -5570,19 +5570,19 @@
         <v>50170</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37860</v>
+        <v>37151</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67394</v>
+        <v>65742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1268674278915508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09573653113132936</v>
+        <v>0.09394533795462874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1704201342216673</v>
+        <v>0.1662438598264678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -5591,19 +5591,19 @@
         <v>70559</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58452</v>
+        <v>58926</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>85012</v>
+        <v>85962</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1540564458820467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1276220050403417</v>
+        <v>0.128658243369933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1856138957036935</v>
+        <v>0.1876868277527287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -5612,19 +5612,19 @@
         <v>120729</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101659</v>
+        <v>103282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>141286</v>
+        <v>143273</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1414582657914858</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1191140229513935</v>
+        <v>0.1210150458918347</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1655446589904704</v>
+        <v>0.1678725276937499</v>
       </c>
     </row>
     <row r="15">
@@ -5716,19 +5716,19 @@
         <v>34238</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23862</v>
+        <v>23287</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49715</v>
+        <v>48171</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.115941357258765</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08080525327857403</v>
+        <v>0.07885746375893719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1683523961339821</v>
+        <v>0.1631225925154195</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -5737,19 +5737,19 @@
         <v>27758</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19038</v>
+        <v>19679</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38965</v>
+        <v>38796</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08023783744253955</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05503317077801998</v>
+        <v>0.05688643837504426</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1126349918938663</v>
+        <v>0.1121455950206142</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -5758,19 +5758,19 @@
         <v>61996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49909</v>
+        <v>48557</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79535</v>
+        <v>77580</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09667993687145578</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07783147259975642</v>
+        <v>0.07572276317369356</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1240308506533622</v>
+        <v>0.1209826033779762</v>
       </c>
     </row>
     <row r="17">
@@ -5787,19 +5787,19 @@
         <v>53973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41084</v>
+        <v>41818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68321</v>
+        <v>68401</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1827690070520151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1391232170202115</v>
+        <v>0.1416093614656445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2313559547575123</v>
+        <v>0.2316290708194068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>89</v>
@@ -5808,19 +5808,19 @@
         <v>64959</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53067</v>
+        <v>52237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80055</v>
+        <v>78856</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1877744088019103</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1533976915663062</v>
+        <v>0.15099851941248</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2314111483538774</v>
+        <v>0.2279452430973682</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>146</v>
@@ -5829,19 +5829,19 @@
         <v>118932</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>102144</v>
+        <v>100707</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>138483</v>
+        <v>138673</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1854693331769562</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1592900528619438</v>
+        <v>0.1570477919392601</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2159579999360981</v>
+        <v>0.2162555914543238</v>
       </c>
     </row>
     <row r="18">
@@ -5858,19 +5858,19 @@
         <v>92047</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76925</v>
+        <v>77873</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107275</v>
+        <v>107330</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3117003575258022</v>
+        <v>0.3117003575258021</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2604932106722134</v>
+        <v>0.2637026973502457</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3632657814548839</v>
+        <v>0.3634530448567991</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>163</v>
@@ -5879,19 +5879,19 @@
         <v>104803</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90681</v>
+        <v>91712</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>119956</v>
+        <v>120095</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3029489885188971</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2621275485160402</v>
+        <v>0.2651087235114817</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3467517194037084</v>
+        <v>0.3471544121839998</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>268</v>
@@ -5900,19 +5900,19 @@
         <v>196850</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>177325</v>
+        <v>175538</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>217561</v>
+        <v>216564</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3069791480127315</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2765317858213561</v>
+        <v>0.2737446162457704</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3392778750882957</v>
+        <v>0.3377234155722283</v>
       </c>
     </row>
     <row r="19">
@@ -5929,19 +5929,19 @@
         <v>39373</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29571</v>
+        <v>29758</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49832</v>
+        <v>50102</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1333303404579576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1001362149589221</v>
+        <v>0.1007690495318517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1687470955286696</v>
+        <v>0.1696598925018085</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>106</v>
@@ -5950,19 +5950,19 @@
         <v>65996</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56013</v>
+        <v>54261</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78699</v>
+        <v>78092</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1907731005566394</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1619150855288095</v>
+        <v>0.1568500268512568</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.227493116634303</v>
+        <v>0.2257365151487752</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>159</v>
@@ -5971,19 +5971,19 @@
         <v>105370</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90698</v>
+        <v>90533</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122918</v>
+        <v>122282</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1643196982625415</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1414403424646216</v>
+        <v>0.1411832247440187</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1916860950817379</v>
+        <v>0.1906940951993377</v>
       </c>
     </row>
     <row r="20">
@@ -6000,19 +6000,19 @@
         <v>75675</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62303</v>
+        <v>62548</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89509</v>
+        <v>89623</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2562589377054602</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2109770515523314</v>
+        <v>0.2118079138104996</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3031047909604956</v>
+        <v>0.3034920825914089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -6021,19 +6021,19 @@
         <v>82426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70202</v>
+        <v>69104</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>97457</v>
+        <v>94295</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2382656646800135</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2029313235252874</v>
+        <v>0.1997546312712022</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2817148825704283</v>
+        <v>0.2725741070618176</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>229</v>
@@ -6042,19 +6042,19 @@
         <v>158101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>139536</v>
+        <v>140284</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>177086</v>
+        <v>177946</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2465518836763149</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2175999513820422</v>
+        <v>0.2187669264866428</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2761583398684548</v>
+        <v>0.2774993801224651</v>
       </c>
     </row>
     <row r="21">
@@ -6146,19 +6146,19 @@
         <v>28127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17157</v>
+        <v>16801</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44025</v>
+        <v>41849</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09321796699817089</v>
+        <v>0.09321796699817092</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05686180772204481</v>
+        <v>0.05568300048494667</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1459068531047424</v>
+        <v>0.1386955267124375</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -6167,19 +6167,19 @@
         <v>34299</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24757</v>
+        <v>24032</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47389</v>
+        <v>45873</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09204405231760257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06643818566771506</v>
+        <v>0.06449257398072972</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1271726340602471</v>
+        <v>0.1231040980222028</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -6188,19 +6188,19 @@
         <v>62426</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47444</v>
+        <v>47743</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81141</v>
+        <v>82750</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09256929459338786</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07035290476612589</v>
+        <v>0.07079602330142708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1203215602444566</v>
+        <v>0.1227064774247489</v>
       </c>
     </row>
     <row r="23">
@@ -6217,19 +6217,19 @@
         <v>67282</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49765</v>
+        <v>50345</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>87398</v>
+        <v>87263</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2229849346580441</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1649297520099572</v>
+        <v>0.1668525860290728</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2896521595645343</v>
+        <v>0.2892059048326167</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>104</v>
@@ -6238,19 +6238,19 @@
         <v>75475</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>61621</v>
+        <v>61922</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>93454</v>
+        <v>90932</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2025415617253143</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1653649340000261</v>
+        <v>0.1661728851456928</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2507890913909859</v>
+        <v>0.2440205653276111</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>158</v>
@@ -6259,19 +6259,19 @@
         <v>142757</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>120604</v>
+        <v>120965</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>167633</v>
+        <v>165857</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2116884988082682</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1788386056755741</v>
+        <v>0.1793750481682705</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2485763772058803</v>
+        <v>0.2459427217058565</v>
       </c>
     </row>
     <row r="24">
@@ -6288,19 +6288,19 @@
         <v>71600</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>54541</v>
+        <v>53267</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>92532</v>
+        <v>91764</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2372959582238757</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1807596534856557</v>
+        <v>0.1765354988097844</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3066689909465616</v>
+        <v>0.3041224248014864</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>129</v>
@@ -6309,19 +6309,19 @@
         <v>89527</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74898</v>
+        <v>75640</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>104913</v>
+        <v>106692</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2402525634939722</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2009937184329979</v>
+        <v>0.2029836665950458</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2815415362787974</v>
+        <v>0.2863138910319222</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>180</v>
@@ -6330,19 +6330,19 @@
         <v>161127</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>136696</v>
+        <v>137141</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>188784</v>
+        <v>186382</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2389296955663708</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2027009923082584</v>
+        <v>0.2033606380171169</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2799401597358437</v>
+        <v>0.2763785970092263</v>
       </c>
     </row>
     <row r="25">
@@ -6359,19 +6359,19 @@
         <v>57734</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41155</v>
+        <v>42820</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>78480</v>
+        <v>77920</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1913422529260541</v>
+        <v>0.1913422529260542</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1363955198244316</v>
+        <v>0.1419139583563893</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2600986017708398</v>
+        <v>0.258241054893205</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -6380,19 +6380,19 @@
         <v>51066</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40446</v>
+        <v>39672</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64246</v>
+        <v>63973</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1370393202809837</v>
+        <v>0.1370393202809836</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.108540562207032</v>
+        <v>0.1064623229321699</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1724081443232692</v>
+        <v>0.171676356886952</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -6401,19 +6401,19 @@
         <v>108800</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>89761</v>
+        <v>89159</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>129572</v>
+        <v>130502</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1613359718148957</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1331035024008184</v>
+        <v>0.1322098781495591</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1921380269983818</v>
+        <v>0.1935165886366066</v>
       </c>
     </row>
     <row r="26">
@@ -6430,19 +6430,19 @@
         <v>76990</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60547</v>
+        <v>61313</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>95673</v>
+        <v>97431</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2551588871938552</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2006635215198712</v>
+        <v>0.2032021956023798</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3170774977655518</v>
+        <v>0.3229043924174437</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>188</v>
@@ -6451,19 +6451,19 @@
         <v>122271</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>106090</v>
+        <v>105860</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>141327</v>
+        <v>139559</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3281225021821274</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.284699954396833</v>
+        <v>0.2840826809566697</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3792585889343743</v>
+        <v>0.374515330779589</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>267</v>
@@ -6472,19 +6472,19 @@
         <v>199261</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>173882</v>
+        <v>176591</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>224885</v>
+        <v>225756</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2954765392170775</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2578437109495779</v>
+        <v>0.2618607361606844</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3334742047997369</v>
+        <v>0.3347655696157636</v>
       </c>
     </row>
     <row r="27">
@@ -6576,19 +6576,19 @@
         <v>8913</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4121</v>
+        <v>4986</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14583</v>
+        <v>15424</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05583544812457144</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02581678275528982</v>
+        <v>0.03123461076392526</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09135832381384149</v>
+        <v>0.09662346952177626</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -6597,19 +6597,19 @@
         <v>8986</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4875</v>
+        <v>5409</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14648</v>
+        <v>14508</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04587504143168544</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02488818426350719</v>
+        <v>0.02761413335384261</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.074783050957583</v>
+        <v>0.07406700459012557</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -6618,19 +6618,19 @@
         <v>17898</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11972</v>
+        <v>11622</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25760</v>
+        <v>25973</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.05034743689957945</v>
+        <v>0.05034743689957944</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03367745353080295</v>
+        <v>0.0326911878262209</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07246076817935296</v>
+        <v>0.07306076047868418</v>
       </c>
     </row>
     <row r="29">
@@ -6647,19 +6647,19 @@
         <v>30611</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23048</v>
+        <v>22691</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>39995</v>
+        <v>39629</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1917712052101564</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1443866375713745</v>
+        <v>0.1421489536762403</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2505581286989746</v>
+        <v>0.2482647941557372</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>74</v>
@@ -6668,19 +6668,19 @@
         <v>33347</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26162</v>
+        <v>25801</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41664</v>
+        <v>41705</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1702466708249759</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1335631241751991</v>
+        <v>0.1317239826578032</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2127059086000187</v>
+        <v>0.2129159652986529</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>118</v>
@@ -6689,19 +6689,19 @@
         <v>63958</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>52778</v>
+        <v>54071</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>76704</v>
+        <v>76083</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.179911560322065</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1484623042147865</v>
+        <v>0.1520977029919448</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2157649880313866</v>
+        <v>0.2140177187321474</v>
       </c>
     </row>
     <row r="30">
@@ -6718,19 +6718,19 @@
         <v>78752</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>68279</v>
+        <v>68410</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>89231</v>
+        <v>89488</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4933559522450668</v>
+        <v>0.493355952245067</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4277485836659037</v>
+        <v>0.4285639360560523</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5590065366552495</v>
+        <v>0.5606120182993529</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>184</v>
@@ -6739,19 +6739,19 @@
         <v>80564</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>70880</v>
+        <v>70784</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>89568</v>
+        <v>89422</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.4113061804966675</v>
+        <v>0.4113061804966672</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3618653438885153</v>
+        <v>0.3613744414208592</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4572748357261812</v>
+        <v>0.4565266755099436</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>298</v>
@@ -6760,19 +6760,19 @@
         <v>159316</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>145022</v>
+        <v>144456</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>175145</v>
+        <v>173174</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4481479519849111</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4079384927106305</v>
+        <v>0.4063459702555346</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4926737975728466</v>
+        <v>0.4871287724133695</v>
       </c>
     </row>
     <row r="31">
@@ -6789,19 +6789,19 @@
         <v>26391</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19481</v>
+        <v>18812</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35644</v>
+        <v>35409</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1653281492089224</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1220419885975856</v>
+        <v>0.1178522798428715</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2232959301606594</v>
+        <v>0.2218246376549483</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>101</v>
@@ -6810,19 +6810,19 @@
         <v>41958</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>34491</v>
+        <v>34524</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>49897</v>
+        <v>49557</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2142111312524101</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.176088539593222</v>
+        <v>0.1762547742087702</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2547382353087527</v>
+        <v>0.253005635799168</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>141</v>
@@ -6831,19 +6831,19 @@
         <v>68349</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>57858</v>
+        <v>58239</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>79776</v>
+        <v>81371</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1922618239510741</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1627503551008533</v>
+        <v>0.1638226016580182</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2244060005355599</v>
+        <v>0.2288911640014609</v>
       </c>
     </row>
     <row r="32">
@@ -6860,19 +6860,19 @@
         <v>14958</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9862</v>
+        <v>9828</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21490</v>
+        <v>21180</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09370924521128284</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06178079618321189</v>
+        <v>0.06156961236262874</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1346294977542389</v>
+        <v>0.132688031325711</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -6881,19 +6881,19 @@
         <v>31019</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24728</v>
+        <v>25294</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>38797</v>
+        <v>39062</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1583609759942612</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1262457985886459</v>
+        <v>0.1291325462407686</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.198072589632356</v>
+        <v>0.1994245051310592</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>96</v>
@@ -6902,19 +6902,19 @@
         <v>45977</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>37454</v>
+        <v>37020</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>55020</v>
+        <v>55672</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1293312268423703</v>
+        <v>0.1293312268423702</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1053551125264169</v>
+        <v>0.1041362992398305</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1547687297120326</v>
+        <v>0.1566026570977767</v>
       </c>
     </row>
     <row r="33">
@@ -7006,19 +7006,19 @@
         <v>34452</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>24166</v>
+        <v>25198</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>46030</v>
+        <v>45564</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1361830059324683</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09552437956913559</v>
+        <v>0.09960326012983713</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1819486312072085</v>
+        <v>0.1801082741857121</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>31</v>
@@ -7027,19 +7027,19 @@
         <v>23384</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>16059</v>
+        <v>16611</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33468</v>
+        <v>32612</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.09209654168061793</v>
+        <v>0.09209654168061789</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0632496112259264</v>
+        <v>0.06542334055530712</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1318148994642953</v>
+        <v>0.1284433951260266</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>68</v>
@@ -7048,19 +7048,19 @@
         <v>57836</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>45275</v>
+        <v>45454</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>72572</v>
+        <v>70263</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1140996510771404</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08932003529457321</v>
+        <v>0.08967317199079439</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1431723264686385</v>
+        <v>0.1386158936725073</v>
       </c>
     </row>
     <row r="35">
@@ -7077,19 +7077,19 @@
         <v>60600</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>48894</v>
+        <v>48659</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>74374</v>
+        <v>75224</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2395429064852288</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1932725735629748</v>
+        <v>0.1923399091343925</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.293988322507153</v>
+        <v>0.2973509635376527</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>79</v>
@@ -7098,19 +7098,19 @@
         <v>50309</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>40105</v>
+        <v>40410</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>60616</v>
+        <v>61040</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1981390784901406</v>
+        <v>0.1981390784901405</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1579544733389135</v>
+        <v>0.1591521497569687</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2387333329966219</v>
+        <v>0.2404029831994377</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>145</v>
@@ -7119,19 +7119,19 @@
         <v>110909</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>95611</v>
+        <v>94043</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>128187</v>
+        <v>127535</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.2188033112035293</v>
+        <v>0.2188033112035292</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1886238126194626</v>
+        <v>0.1855300229544726</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2528911207606629</v>
+        <v>0.2516041063898076</v>
       </c>
     </row>
     <row r="36">
@@ -7148,19 +7148,19 @@
         <v>64906</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>54575</v>
+        <v>53109</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>78133</v>
+        <v>75982</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2565633808521677</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2157253985735526</v>
+        <v>0.2099324066878879</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3088478467956405</v>
+        <v>0.3003469975242378</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>121</v>
@@ -7169,19 +7169,19 @@
         <v>70527</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>60060</v>
+        <v>59560</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>82124</v>
+        <v>83188</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2777702193181605</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.236545417303098</v>
+        <v>0.2345753234169703</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3234431929955702</v>
+        <v>0.3276354206288854</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>216</v>
@@ -7190,19 +7190,19 @@
         <v>135433</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>120784</v>
+        <v>119916</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>153660</v>
+        <v>153358</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2671861002548578</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.238286777886154</v>
+        <v>0.2365729282300183</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3031451389474218</v>
+        <v>0.3025480710600166</v>
       </c>
     </row>
     <row r="37">
@@ -7219,19 +7219,19 @@
         <v>39541</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>30806</v>
+        <v>30560</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>49597</v>
+        <v>49768</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1562979659193115</v>
+        <v>0.1562979659193116</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1217713467569407</v>
+        <v>0.1207999786944623</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1960493738210073</v>
+        <v>0.196726526260363</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>90</v>
@@ -7240,19 +7240,19 @@
         <v>44190</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>34643</v>
+        <v>36114</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>53353</v>
+        <v>53058</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1740425456176632</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1364400224060609</v>
+        <v>0.1422359397531553</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2101281403861094</v>
+        <v>0.2089682697874559</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>157</v>
@@ -7261,19 +7261,19 @@
         <v>83731</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>71279</v>
+        <v>71579</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>97284</v>
+        <v>96973</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1651864049648832</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1406206609404771</v>
+        <v>0.1412133371370205</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1919239674999255</v>
+        <v>0.1913104982325151</v>
       </c>
     </row>
     <row r="38">
@@ -7290,19 +7290,19 @@
         <v>53484</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>42367</v>
+        <v>43397</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>63861</v>
+        <v>64700</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2114127408108236</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1674686933438341</v>
+        <v>0.1715420041577672</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2524316751855207</v>
+        <v>0.2557481703176702</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>130</v>
@@ -7311,19 +7311,19 @@
         <v>65495</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>55509</v>
+        <v>55862</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>77345</v>
+        <v>75762</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2579516148934178</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2186230102029644</v>
+        <v>0.2200102088339871</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3046205305186549</v>
+        <v>0.2983883793859209</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>220</v>
@@ -7332,19 +7332,19 @@
         <v>118979</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>105252</v>
+        <v>104877</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>134448</v>
+        <v>135835</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.2347245324995893</v>
+        <v>0.2347245324995892</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2076444335721471</v>
+        <v>0.2069039813523314</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2652429831450204</v>
+        <v>0.2679782887039602</v>
       </c>
     </row>
     <row r="39">
@@ -7436,19 +7436,19 @@
         <v>39087</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>27255</v>
+        <v>27820</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>52183</v>
+        <v>55410</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06742359953738015</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04701419640053642</v>
+        <v>0.04798796736733033</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09001305528057506</v>
+        <v>0.09557955517225124</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>42</v>
@@ -7457,19 +7457,19 @@
         <v>34726</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>25156</v>
+        <v>24818</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>48174</v>
+        <v>47133</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0504008808877241</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03651117415369071</v>
+        <v>0.03602054665597561</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06991839244653889</v>
+        <v>0.06840734758551818</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>75</v>
@@ -7478,19 +7478,19 @@
         <v>73814</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>57219</v>
+        <v>57604</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>93023</v>
+        <v>92017</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.05817916606960691</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04509942821890034</v>
+        <v>0.04540260080409653</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07331999899865704</v>
+        <v>0.07252707615235394</v>
       </c>
     </row>
     <row r="41">
@@ -7507,19 +7507,19 @@
         <v>105793</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>84777</v>
+        <v>86117</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>130600</v>
+        <v>128937</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1824872024525529</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1462362569431141</v>
+        <v>0.1485474972169606</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2252784051613036</v>
+        <v>0.2224092615443403</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>156</v>
@@ -7528,19 +7528,19 @@
         <v>129045</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>112788</v>
+        <v>110367</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>150648</v>
+        <v>151035</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1872926765172952</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1636984644105132</v>
+        <v>0.1601834666541177</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2186467422446001</v>
+        <v>0.2192084305224337</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>237</v>
@@ -7549,19 +7549,19 @@
         <v>234838</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>205131</v>
+        <v>206748</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>264956</v>
+        <v>267410</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1850968846183048</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1616823164623723</v>
+        <v>0.1629569399914418</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2088356352925792</v>
+        <v>0.2107703545661071</v>
       </c>
     </row>
     <row r="42">
@@ -7578,19 +7578,19 @@
         <v>195144</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>169530</v>
+        <v>170941</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>222570</v>
+        <v>220752</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.33661342314936</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2924309816702415</v>
+        <v>0.2948645282104384</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3839229445088899</v>
+        <v>0.3807867245666541</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>266</v>
@@ -7599,19 +7599,19 @@
         <v>209711</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>187979</v>
+        <v>186941</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>234743</v>
+        <v>233029</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3043698259278254</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2728289763986999</v>
+        <v>0.2713222673417799</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3406998172663713</v>
+        <v>0.3382127026591494</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>435</v>
@@ -7620,19 +7620,19 @@
         <v>404855</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>373713</v>
+        <v>373187</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>443140</v>
+        <v>440165</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.3191030715180607</v>
+        <v>0.3191030715180606</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2945572054890552</v>
+        <v>0.2941429624020028</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3492790489133372</v>
+        <v>0.346934261903008</v>
       </c>
     </row>
     <row r="43">
@@ -7649,19 +7649,19 @@
         <v>104840</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>84262</v>
+        <v>86061</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>125686</v>
+        <v>126442</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1808444410519899</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1453472578170143</v>
+        <v>0.1484501496207968</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2168012168824962</v>
+        <v>0.2181063583600807</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>151</v>
@@ -7670,19 +7670,19 @@
         <v>116910</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>99069</v>
+        <v>100092</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>134938</v>
+        <v>135740</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1696803343454941</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1437864115914939</v>
+        <v>0.1452715202902549</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1958464914602327</v>
+        <v>0.1970101325433203</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>250</v>
@@ -7691,19 +7691,19 @@
         <v>221750</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>194323</v>
+        <v>195415</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>247524</v>
+        <v>250734</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.17478161150053</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1531638311160826</v>
+        <v>0.1540242335250972</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1950958215335893</v>
+        <v>0.1976263810368091</v>
       </c>
     </row>
     <row r="44">
@@ -7720,19 +7720,19 @@
         <v>134863</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>113850</v>
+        <v>111833</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>160725</v>
+        <v>155099</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2326313338087169</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1963857735718034</v>
+        <v>0.1929065699897769</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2772423372565859</v>
+        <v>0.2675384205833499</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>255</v>
@@ -7741,19 +7741,19 @@
         <v>198609</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>177334</v>
+        <v>175748</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>222526</v>
+        <v>219243</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2882562823216613</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2573785737939659</v>
+        <v>0.2550767263240504</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3229697456271569</v>
+        <v>0.318204356411022</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>381</v>
@@ -7762,19 +7762,19 @@
         <v>333472</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>303402</v>
+        <v>304537</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>368952</v>
+        <v>369823</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2628392662934976</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2391383567805129</v>
+        <v>0.2400333585612078</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2908045703829876</v>
+        <v>0.2914914419044076</v>
       </c>
     </row>
     <row r="45">
@@ -7866,19 +7866,19 @@
         <v>19957</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>12188</v>
+        <v>12247</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>30661</v>
+        <v>30416</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.0420664890530215</v>
+        <v>0.04206648905302151</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02568896535489476</v>
+        <v>0.02581341800530468</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.06462770859765002</v>
+        <v>0.06411016321683141</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>30</v>
@@ -7887,19 +7887,19 @@
         <v>23451</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>16033</v>
+        <v>15936</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>33388</v>
+        <v>32609</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.04092057936759354</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02797622807500072</v>
+        <v>0.02780825900268152</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05826080571402573</v>
+        <v>0.05690157782242915</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>49</v>
@@ -7908,19 +7908,19 @@
         <v>43408</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>32127</v>
+        <v>32527</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>56281</v>
+        <v>57373</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.04143957118681912</v>
+        <v>0.0414395711868191</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03067030154023866</v>
+        <v>0.03105180838535015</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05372824399712946</v>
+        <v>0.0547706701742795</v>
       </c>
     </row>
     <row r="47">
@@ -7937,19 +7937,19 @@
         <v>153113</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>135094</v>
+        <v>133302</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>174893</v>
+        <v>173128</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3227326403681009</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2847528125394395</v>
+        <v>0.2809744674109038</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.368641494169028</v>
+        <v>0.3649211133754674</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>201</v>
@@ -7958,19 +7958,19 @@
         <v>151613</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>133664</v>
+        <v>133398</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>169855</v>
+        <v>169831</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2645554828803133</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2332354711593297</v>
+        <v>0.2327719284841342</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.296387944752802</v>
+        <v>0.2963443880729892</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>356</v>
@@ -7979,19 +7979,19 @@
         <v>304726</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>278860</v>
+        <v>276810</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>334633</v>
+        <v>331968</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.2909043908142602</v>
+        <v>0.2909043908142603</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2662123016766169</v>
+        <v>0.2642548636905328</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3194553140357954</v>
+        <v>0.3169110677850597</v>
       </c>
     </row>
     <row r="48">
@@ -8008,19 +8008,19 @@
         <v>159018</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>139051</v>
+        <v>139795</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>178540</v>
+        <v>180568</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3351797364747435</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2930936093993892</v>
+        <v>0.2946610081597999</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3763293258760937</v>
+        <v>0.3806037372197373</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>286</v>
@@ -8029,19 +8029,19 @@
         <v>202032</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>185145</v>
+        <v>182716</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>220733</v>
+        <v>220771</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3525333435985596</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3230676552589101</v>
+        <v>0.318828026199571</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3851658108999115</v>
+        <v>0.3852324671929676</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>466</v>
@@ -8050,19 +8050,19 @@
         <v>361050</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>331793</v>
+        <v>332963</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>387178</v>
+        <v>386150</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.3446737537496864</v>
+        <v>0.3446737537496865</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3167445585102227</v>
+        <v>0.3178609859847382</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3696172607423536</v>
+        <v>0.3686353704110399</v>
       </c>
     </row>
     <row r="49">
@@ -8079,19 +8079,19 @@
         <v>114288</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>98233</v>
+        <v>97741</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>133516</v>
+        <v>132068</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.2408975323069872</v>
+        <v>0.2408975323069873</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2070574296517412</v>
+        <v>0.2060185212261951</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2814256372499234</v>
+        <v>0.278374970289137</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>192</v>
@@ -8100,19 +8100,19 @@
         <v>129112</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>114385</v>
+        <v>113196</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>146507</v>
+        <v>146827</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.2252933082719569</v>
+        <v>0.225293308271957</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.199595904623082</v>
+        <v>0.1975201431584863</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2556460544792833</v>
+        <v>0.2562041820097348</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>327</v>
@@ -8121,19 +8121,19 @@
         <v>243400</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>219021</v>
+        <v>221228</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>267149</v>
+        <v>270455</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.2323605882875885</v>
+        <v>0.2323605882875886</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2090875395748223</v>
+        <v>0.2111942073104575</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2550324503840463</v>
+        <v>0.2581885921928532</v>
       </c>
     </row>
     <row r="50">
@@ -8150,19 +8150,19 @@
         <v>28050</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>19239</v>
+        <v>19842</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>39778</v>
+        <v>39769</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.05912360179714674</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04055294400156965</v>
+        <v>0.04182255222919121</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.08384503745863539</v>
+        <v>0.08382645406699163</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>94</v>
@@ -8171,19 +8171,19 @@
         <v>66877</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>55415</v>
+        <v>54193</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>81759</v>
+        <v>79477</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1166972858815766</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.09669640382460538</v>
+        <v>0.09456398659239232</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1426650231685008</v>
+        <v>0.1386825305973529</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>125</v>
@@ -8192,19 +8192,19 @@
         <v>94927</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>81297</v>
+        <v>80681</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>115532</v>
+        <v>113189</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.09062169596164565</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.07760958860955962</v>
+        <v>0.07702153000124126</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1102922971164413</v>
+        <v>0.1080555529602716</v>
       </c>
     </row>
     <row r="51">
@@ -8296,19 +8296,19 @@
         <v>248042</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>215730</v>
+        <v>214785</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>284524</v>
+        <v>283057</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.08954787410597108</v>
+        <v>0.08954787410597106</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.07788258860472178</v>
+        <v>0.07754159526952767</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1027186450144394</v>
+        <v>0.1021891928240745</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>304</v>
@@ -8317,19 +8317,19 @@
         <v>231439</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>206485</v>
+        <v>207344</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>259779</v>
+        <v>260101</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.07232087750754188</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.06452314308607512</v>
+        <v>0.06479146502927764</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.08117673923137148</v>
+        <v>0.08127726117611961</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>518</v>
@@ -8338,19 +8338,19 @@
         <v>479481</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>439253</v>
+        <v>438488</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>526975</v>
+        <v>520319</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.08031364478014844</v>
+        <v>0.08031364478014845</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07357541957445812</v>
+        <v>0.07344731555766953</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08826896836451373</v>
+        <v>0.08715415931961279</v>
       </c>
     </row>
     <row r="53">
@@ -8367,19 +8367,19 @@
         <v>731310</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>681608</v>
+        <v>679966</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>781808</v>
+        <v>778471</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.2640172980157824</v>
+        <v>0.2640172980157823</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2460735707772764</v>
+        <v>0.245481115271947</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2822479642543107</v>
+        <v>0.2810430388335397</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1090</v>
@@ -8388,19 +8388,19 @@
         <v>775679</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>729533</v>
+        <v>732202</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>818321</v>
+        <v>820514</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2423869255282635</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2279671178315268</v>
+        <v>0.2288011053265252</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2557116868075613</v>
+        <v>0.2563971151808211</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1770</v>
@@ -8409,19 +8409,19 @@
         <v>1506990</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1443020</v>
+        <v>1444935</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1575008</v>
+        <v>1571230</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.2524227162898577</v>
+        <v>0.2524227162898576</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2417077929254756</v>
+        <v>0.2420285364813884</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2638159575844633</v>
+        <v>0.2631830244485783</v>
       </c>
     </row>
     <row r="54">
@@ -8438,19 +8438,19 @@
         <v>808088</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>760690</v>
+        <v>754389</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>858175</v>
+        <v>856898</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.2917354045406607</v>
+        <v>0.2917354045406606</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2746237710714058</v>
+        <v>0.2723492391884345</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3098180211684604</v>
+        <v>0.309356805055131</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1426</v>
@@ -8459,19 +8459,19 @@
         <v>934644</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>889877</v>
+        <v>894290</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>980100</v>
+        <v>977567</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2920608117885256</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2780719503825637</v>
+        <v>0.2794507220353185</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3062651932726812</v>
+        <v>0.3054735760719445</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2271</v>
@@ -8480,19 +8480,19 @@
         <v>1742732</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1676284</v>
+        <v>1677915</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1810979</v>
+        <v>1811516</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2919098333874942</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2807797823058024</v>
+        <v>0.2810529375782141</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3033413856881211</v>
+        <v>0.3034312481661294</v>
       </c>
     </row>
     <row r="55">
@@ -8509,19 +8509,19 @@
         <v>462637</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>423499</v>
+        <v>424737</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>504806</v>
+        <v>506111</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1670208070954581</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1528914776586928</v>
+        <v>0.1533383622706213</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1822447223734343</v>
+        <v>0.1827159916854525</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>847</v>
@@ -8530,19 +8530,19 @@
         <v>524211</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>492796</v>
+        <v>489023</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>560276</v>
+        <v>560292</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1638072210708529</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1539904934614726</v>
+        <v>0.1528116327930422</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.17507689915646</v>
+        <v>0.1750821146945076</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1367</v>
@@ -8551,19 +8551,19 @@
         <v>986847</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>934052</v>
+        <v>938271</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1045140</v>
+        <v>1044911</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1652982206805883</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1564549465915624</v>
+        <v>0.157161682620092</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1750622323720184</v>
+        <v>0.1750239961330298</v>
       </c>
     </row>
     <row r="56">
@@ -8580,19 +8580,19 @@
         <v>519857</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>477767</v>
+        <v>479164</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>559576</v>
+        <v>562173</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1876786162421278</v>
+        <v>0.1876786162421277</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1724831407417306</v>
+        <v>0.172987336579705</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2020176654577125</v>
+        <v>0.2029554175412802</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1134</v>
@@ -8601,19 +8601,19 @@
         <v>734196</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>696342</v>
+        <v>693034</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>776907</v>
+        <v>775510</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.229424164104816</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2175954313979455</v>
+        <v>0.216561617141391</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2427707354579591</v>
+        <v>0.2423339689757521</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1724</v>
@@ -8622,19 +8622,19 @@
         <v>1254053</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1199403</v>
+        <v>1198900</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1318359</v>
+        <v>1315920</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2100555848619113</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2009015592776648</v>
+        <v>0.2008173187069311</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2208267737441068</v>
+        <v>0.2204183612436821</v>
       </c>
     </row>
     <row r="57">
